--- a/bledy/dni_pracujace.xlsx
+++ b/bledy/dni_pracujace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjektyPython\place_v2\bledy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{862117A6-EB03-459A-B4C4-D7679177E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB3EB4-3D31-4AF0-AC35-5DB728FCEBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1680" windowWidth="22575" windowHeight="11490" xr2:uid="{2B2EF517-45F6-4BC2-873F-8CA472DF7129}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{2B2EF517-45F6-4BC2-873F-8CA472DF7129}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -621,13 +621,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -674,5 +674,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bledy/dni_pracujace.xlsx
+++ b/bledy/dni_pracujace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjektyPython\place_v2\bledy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB3EB4-3D31-4AF0-AC35-5DB728FCEBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{862117A6-EB03-459A-B4C4-D7679177E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{2B2EF517-45F6-4BC2-873F-8CA472DF7129}"/>
+    <workbookView xWindow="2730" yWindow="1680" windowWidth="22575" windowHeight="11490" xr2:uid="{2B2EF517-45F6-4BC2-873F-8CA472DF7129}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -621,13 +621,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -674,6 +674,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>